--- a/ControlCambios/05_Planificacion/Plan_002.xlsx
+++ b/ControlCambios/05_Planificacion/Plan_002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romar\Documents\GitHub\EnSo_ControlCambios_gr1.2\ControlCambios\05_Planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E66FE33-ED29-4E07-86AA-C21BE4A95C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0497026F-FB15-4F76-B39A-16E090FB7460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A0B7CE81-5765-4616-ABB9-45231285591F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0B7CE81-5765-4616-ABB9-45231285591F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -95,15 +95,6 @@
     <t>1/1</t>
   </si>
   <si>
-    <t>Lucas Pérez</t>
-  </si>
-  <si>
-    <t>lucas.perez@usc.es</t>
-  </si>
-  <si>
-    <t>LPG_120190</t>
-  </si>
-  <si>
     <t>Representante del equipo de desarrollo, especialistas en seguridad informática, arquitecto de sistemas y gerente del proyecto</t>
   </si>
   <si>
@@ -138,6 +129,15 @@
   </si>
   <si>
     <t>3.66 semanas</t>
+  </si>
+  <si>
+    <t>Roi Martínez Enríquez</t>
+  </si>
+  <si>
+    <t>roi.martinez.enriquez@rai.usc.es</t>
+  </si>
+  <si>
+    <t>RME_241202</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -729,17 +729,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,14 +762,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -765,104 +837,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,7 +1176,7 @@
   <dimension ref="C2:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1207,24 +1201,24 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="56"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
@@ -1232,45 +1226,45 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1285,10 +1279,10 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="56"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
@@ -1296,27 +1290,27 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
@@ -1326,37 +1320,37 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="61"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="63"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
@@ -1375,32 +1369,32 @@
         <v>10</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="61"/>
+      <c r="F20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="63"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
@@ -1419,12 +1413,12 @@
         <v>11</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="F24" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="18"/>
       <c r="L24" s="19"/>
     </row>
@@ -1432,10 +1426,10 @@
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="20"/>
       <c r="L25" s="21"/>
     </row>
@@ -1445,10 +1439,10 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -1463,17 +1457,17 @@
       <c r="L28" s="21"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="7"/>
       <c r="L29" s="21"/>
     </row>
@@ -1492,12 +1486,12 @@
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="68"/>
+      <c r="F31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="7"/>
       <c r="L31" s="21"/>
     </row>
@@ -1505,10 +1499,10 @@
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="7"/>
       <c r="L32" s="21"/>
     </row>
@@ -1531,17 +1525,17 @@
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="7"/>
       <c r="L35" s="21"/>
     </row>
@@ -1560,12 +1554,12 @@
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="68"/>
+      <c r="F37" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="7"/>
       <c r="L37" s="21"/>
     </row>
@@ -1573,10 +1567,10 @@
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="70"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="7"/>
       <c r="L38" s="21"/>
     </row>
@@ -1584,10 +1578,10 @@
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
       <c r="J39" s="7"/>
       <c r="L39" s="21"/>
     </row>
@@ -1597,17 +1591,17 @@
       <c r="L40" s="21"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="7"/>
       <c r="L41" s="21"/>
     </row>
@@ -1619,17 +1613,17 @@
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
       <c r="J43" s="7"/>
       <c r="L43" s="21"/>
     </row>
@@ -1645,18 +1639,18 @@
       <c r="L44" s="21"/>
     </row>
     <row r="45" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31" t="s">
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="32"/>
+      <c r="J45" s="71"/>
       <c r="L45" s="21"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
@@ -1667,17 +1661,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F37:I39"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F16:I18"/>
     <mergeCell ref="F20:I22"/>
     <mergeCell ref="F31:I32"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="C11:D11"/>
@@ -1688,14 +1690,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{D442ED47-A2E9-4851-88D5-C20F7F6EC5BA}"/>
